--- a/Document/SCRUM/Product Backlog.xlsx
+++ b/Document/SCRUM/Product Backlog.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Project Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Impediment Backlog" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>No.</t>
   </si>
@@ -125,13 +124,28 @@
   <si>
     <t>As the user, I want to use my webcam to made a video meeting with my doctor.
 So the information's exchange is more easier</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Group 2 Impediment</t>
+  </si>
+  <si>
+    <t>Some daily meeting late more than 20 minutes</t>
+  </si>
+  <si>
+    <t>Not solve</t>
+  </si>
+  <si>
+    <t>Not follow convention when commit code to SVN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +164,13 @@
     <font>
       <sz val="26"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,14 +196,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,35 +559,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -642,7 +668,7 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E9">
@@ -693,7 +719,7 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E12">
@@ -713,7 +739,7 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13">
@@ -730,7 +756,7 @@
       <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G14">
@@ -790,7 +816,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -802,24 +828,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/SCRUM/Product Backlog.xlsx
+++ b/Document/SCRUM/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Backlog" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Not follow convention when commit code to SVN</t>
+  </si>
+  <si>
+    <t>When finish task, not commit to SVN for other member verify it</t>
   </si>
 </sst>
 </file>
@@ -242,8 +245,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G17" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G18" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:G18"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No."/>
     <tableColumn id="2" name="Category"/>
@@ -544,17 +547,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -617,7 +620,10 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -628,7 +634,10 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -812,6 +821,11 @@
       </c>
       <c r="E17">
         <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -828,16 +842,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,6 +892,17 @@
       </c>
       <c r="C4" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Document/SCRUM/Product Backlog.xlsx
+++ b/Document/SCRUM/Product Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>No.</t>
   </si>
@@ -142,12 +142,81 @@
   </si>
   <si>
     <t>When finish task, not commit to SVN for other member verify it</t>
+  </si>
+  <si>
+    <t>Daily Meeting</t>
+  </si>
+  <si>
+    <t>13/05</t>
+  </si>
+  <si>
+    <t>14/5</t>
+  </si>
+  <si>
+    <t>Absent Without Plans</t>
+  </si>
+  <si>
+    <t>Absent With Plans</t>
+  </si>
+  <si>
+    <t>Tín</t>
+  </si>
+  <si>
+    <t>15/5</t>
+  </si>
+  <si>
+    <t>16/5</t>
+  </si>
+  <si>
+    <t>17/5</t>
+  </si>
+  <si>
+    <t>18/5</t>
+  </si>
+  <si>
+    <t>23/5</t>
+  </si>
+  <si>
+    <t>24/5</t>
+  </si>
+  <si>
+    <t>25/5</t>
+  </si>
+  <si>
+    <t>19/05</t>
+  </si>
+  <si>
+    <t>20/05</t>
+  </si>
+  <si>
+    <t>21/05</t>
+  </si>
+  <si>
+    <t>22/5</t>
+  </si>
+  <si>
+    <t>26/5</t>
+  </si>
+  <si>
+    <t>Dang</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>27/05</t>
+  </si>
+  <si>
+    <t>28/05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd/mm"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -212,6 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,26 +912,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -872,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -883,7 +954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -894,7 +965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -903,6 +974,121 @@
       </c>
       <c r="C5" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Document/SCRUM/Product Backlog.xlsx
+++ b/Document/SCRUM/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Project Backlog" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm"/>
+    <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -275,13 +275,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,15 +632,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,11 +926,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -988,7 +988,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C16" t="s">
@@ -996,7 +996,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C17" t="s">
@@ -1004,17 +1004,17 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="s">
@@ -1022,12 +1022,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D22" t="s">
@@ -1035,7 +1035,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C23" t="s">
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C24" t="s">
@@ -1051,22 +1051,22 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D28" t="s">
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D29" t="s">
@@ -1082,12 +1082,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Document/SCRUM/Product Backlog.xlsx
+++ b/Document/SCRUM/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Backlog" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>No.</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>28/05</t>
+  </si>
+  <si>
+    <t>29/05</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -912,10 +915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,10 +1088,18 @@
       <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Document/SCRUM/Product Backlog.xlsx
+++ b/Document/SCRUM/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Project Backlog" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>No.</t>
   </si>
@@ -26,30 +26,18 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>OMCS Product Backlog</t>
   </si>
   <si>
     <t>As the doctor, I want to create medical profile for patient</t>
   </si>
   <si>
-    <t>As the user, I want to login to the system</t>
-  </si>
-  <si>
     <t>As the PO, I want to see the basic design of system</t>
   </si>
   <si>
-    <t>Chat realtime</t>
-  </si>
-  <si>
     <t>Create medical profile</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Basic design</t>
   </si>
   <si>
@@ -83,26 +71,10 @@
     <t>Document</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
     <t>Team document</t>
-  </si>
-  <si>
-    <t>As a developer, I want to have some document 
-(product backlog, sprint backlog) created. So I can work well on OMCS</t>
-  </si>
-  <si>
-    <t>Project skeleton</t>
-  </si>
-  <si>
-    <t>As a developer, I want run OMCS successful on my computer</t>
   </si>
   <si>
     <t>Sprint</t>
@@ -112,20 +84,6 @@
 So I can send message and doctor receive immediately</t>
   </si>
   <si>
-    <t>Send image in chat conversation</t>
-  </si>
-  <si>
-    <t>As the user, I want to attach image and send to doctor.
-So the doctor can see it immediately.</t>
-  </si>
-  <si>
-    <t>Chat with video stream</t>
-  </si>
-  <si>
-    <t>As the user, I want to use my webcam to made a video meeting with my doctor.
-So the information's exchange is more easier</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -211,6 +169,137 @@
   </si>
   <si>
     <t>29/05</t>
+  </si>
+  <si>
+    <t>Acceptance criteria</t>
+  </si>
+  <si>
+    <t>As a team member, I want to have the introduction about the project so that I can understand the initial idea.</t>
+  </si>
+  <si>
+    <t>Delivery date</t>
+  </si>
+  <si>
+    <t>As a team member, I want to have the Project Management Plan so that I can work well on the project</t>
+  </si>
+  <si>
+    <t>20 May, 2014</t>
+  </si>
+  <si>
+    <t>The report should follow the template from FPT University
+Good layout, cover all items</t>
+  </si>
+  <si>
+    <t>As a team member, I want to have the System Requirements Specifications</t>
+  </si>
+  <si>
+    <t>As a team member, I want to have the System Design Specifications so that I can have a good design to follow</t>
+  </si>
+  <si>
+    <t>The report should follow the template from FPT University
+Good layout, cover all items
+All features are listed out and analysed carefully</t>
+  </si>
+  <si>
+    <t>As a team member, I want to have System Implementation &amp; Test document so that I can have full-featured and well-tested release</t>
+  </si>
+  <si>
+    <t>05 June, 2014</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>12 June, 2014</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>4, 5, 6, 7, 8</t>
+  </si>
+  <si>
+    <t>09 July, 2014</t>
+  </si>
+  <si>
+    <t>9, 10</t>
+  </si>
+  <si>
+    <t>As a team member, I want to have some document 
+(product backlog, sprint backlog, team wiki) created. So I can work well on OMCS</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>[User] Login</t>
+  </si>
+  <si>
+    <t>As a user, I want to login to the system</t>
+  </si>
+  <si>
+    <t>[User] Login with remember me</t>
+  </si>
+  <si>
+    <t>As a user, I want to login automatically</t>
+  </si>
+  <si>
+    <t>[User] Register</t>
+  </si>
+  <si>
+    <t>[User] Forget password</t>
+  </si>
+  <si>
+    <t>As a guest, I want to register new account</t>
+  </si>
+  <si>
+    <t>As a user, I want to get new password by email when I forgot it, so that I can continue to use OMCS</t>
+  </si>
+  <si>
+    <t>[User] Edit profile information</t>
+  </si>
+  <si>
+    <t>As a user, I want to update some information (profile picture, firstname,…)</t>
+  </si>
+  <si>
+    <t>[Patient] Update patient information</t>
+  </si>
+  <si>
+    <t>As a patient, I want to update some information about my profile, basic health record</t>
+  </si>
+  <si>
+    <t>For user experience, use in-place editor to edit information</t>
+  </si>
+  <si>
+    <t>[Patient] Chat</t>
+  </si>
+  <si>
+    <t>The behavior could be:
+The system list out all doctors with their status
+Patient can select doctor to chat with
+Patient can see old chat content</t>
+  </si>
+  <si>
+    <t>[Patient] Share webcam</t>
+  </si>
+  <si>
+    <t>Doctor can see the stream that patient share
+Doctor can see the stream in full-screen</t>
+  </si>
+  <si>
+    <t>[Patient] Attachment</t>
+  </si>
+  <si>
+    <t>As a patient, I want to attach some files, images and send to doctor</t>
+  </si>
+  <si>
+    <t>If attach files are images, display on the chat content, otherwise, let doctor download it</t>
+  </si>
+  <si>
+    <t>As a patient, I want to share my webcam so the information's exchange is more easier</t>
+  </si>
+  <si>
+    <t>[Admin] Define medical profile template</t>
   </si>
 </sst>
 </file>
@@ -259,7 +348,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -267,11 +356,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -285,11 +394,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -318,15 +444,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G18" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:G18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:G19"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No."/>
     <tableColumn id="2" name="Category"/>
     <tableColumn id="3" name="Userstory"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Value"/>
-    <tableColumn id="6" name="Risk"/>
+    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="6" name="Acceptance criteria"/>
+    <tableColumn id="7" name="Delivery date"/>
     <tableColumn id="8" name="Sprint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -620,27 +746,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="59.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -650,89 +778,125 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>200</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,22 +904,25 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9">
         <v>1</v>
       </c>
@@ -765,16 +932,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -785,31 +949,24 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12">
         <v>1</v>
       </c>
@@ -819,92 +976,146 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
       <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
@@ -917,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +1141,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -940,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -951,10 +1162,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,10 +1173,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,133 +1184,133 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Document/SCRUM/Product Backlog.xlsx
+++ b/Document/SCRUM/Product Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="179">
   <si>
     <t>No.</t>
   </si>
@@ -29,18 +29,6 @@
     <t>OMCS Product Backlog</t>
   </si>
   <si>
-    <t>As the doctor, I want to create medical profile for patient</t>
-  </si>
-  <si>
-    <t>As the PO, I want to see the basic design of system</t>
-  </si>
-  <si>
-    <t>Create medical profile</t>
-  </si>
-  <si>
-    <t>Basic design</t>
-  </si>
-  <si>
     <t>Report 1</t>
   </si>
   <si>
@@ -59,19 +47,10 @@
     <t>Report 6</t>
   </si>
   <si>
-    <t>As the admin, I want to add, manage doctors</t>
-  </si>
-  <si>
-    <t>Manage doctor</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Document</t>
-  </si>
-  <si>
-    <t>Design</t>
   </si>
   <si>
     <t>Team document</t>
@@ -257,9 +236,6 @@
   </si>
   <si>
     <t>[User] Edit profile information</t>
-  </si>
-  <si>
-    <t>As a user, I want to update some information (profile picture, firstname,…)</t>
   </si>
   <si>
     <t>[Patient] Update patient information</t>
@@ -280,16 +256,10 @@
 Patient can see old chat content</t>
   </si>
   <si>
-    <t>[Patient] Share webcam</t>
-  </si>
-  <si>
     <t>Doctor can see the stream that patient share
 Doctor can see the stream in full-screen</t>
   </si>
   <si>
-    <t>[Patient] Attachment</t>
-  </si>
-  <si>
     <t>As a patient, I want to attach some files, images and send to doctor</t>
   </si>
   <si>
@@ -300,6 +270,314 @@
   </si>
   <si>
     <t>[Admin] Define medical profile template</t>
+  </si>
+  <si>
+    <t>[Admin] Update medical profile template</t>
+  </si>
+  <si>
+    <t>As a user, I want to logout</t>
+  </si>
+  <si>
+    <t>[Patient] View medical profile</t>
+  </si>
+  <si>
+    <t>[Patient] Show webcam</t>
+  </si>
+  <si>
+    <t>[Patient] Upload attachment</t>
+  </si>
+  <si>
+    <t>[Patient] View consult history</t>
+  </si>
+  <si>
+    <t>[Patient] View doctor online</t>
+  </si>
+  <si>
+    <t>[Patient] Change password</t>
+  </si>
+  <si>
+    <t>[Doctor] View medical profile</t>
+  </si>
+  <si>
+    <t>[Doctor] Chat</t>
+  </si>
+  <si>
+    <t>[Doctor] Request webcam</t>
+  </si>
+  <si>
+    <t>[Doctor] Upload attachment</t>
+  </si>
+  <si>
+    <t>[Doctor] Update medical profile</t>
+  </si>
+  <si>
+    <t>[Doctor] Create patient</t>
+  </si>
+  <si>
+    <t>[Doctor] Edit patient information</t>
+  </si>
+  <si>
+    <t>[Doctor] Search patient</t>
+  </si>
+  <si>
+    <t>[Doctor] Change picture profile</t>
+  </si>
+  <si>
+    <t>[Doctor] Change password</t>
+  </si>
+  <si>
+    <t>[Admin] View medical profile</t>
+  </si>
+  <si>
+    <t>[Admin] Create doctor</t>
+  </si>
+  <si>
+    <t>[Admin] Edit doctor</t>
+  </si>
+  <si>
+    <t>[Admin] Search doctor</t>
+  </si>
+  <si>
+    <t>[Admin] Deactive/Active doctor</t>
+  </si>
+  <si>
+    <t>[Admin] Create patient</t>
+  </si>
+  <si>
+    <t>[Admin] Edit patient</t>
+  </si>
+  <si>
+    <t>[Admin] Search patient</t>
+  </si>
+  <si>
+    <t>[Admin] Deactive/Active patient</t>
+  </si>
+  <si>
+    <t>[Admin] Change picture profile</t>
+  </si>
+  <si>
+    <t>[Admin] Change password</t>
+  </si>
+  <si>
+    <t>As a patient, I want to see previous chat content with doctor, so that I haven't to remember everything</t>
+  </si>
+  <si>
+    <t>As a patient, I want to see who is online, so that I can get quickly response</t>
+  </si>
+  <si>
+    <t>List all chat content with the sent time
+Sort chat message by time</t>
+  </si>
+  <si>
+    <t>When doctor go to Conversation page, their status is shown as online for patient
+Patient can see status real-time, donot need to refresh the page</t>
+  </si>
+  <si>
+    <t>As a patient, I want to change my profile picture</t>
+  </si>
+  <si>
+    <t>[Patient] Change profile picture</t>
+  </si>
+  <si>
+    <t>As a patient, I want to change my password</t>
+  </si>
+  <si>
+    <t>As a patient, I want to view my medical profile, so that I can have overview about my dieases</t>
+  </si>
+  <si>
+    <t>List all medical profiles created for logged in patient
+Not allow patient to modify medical profile</t>
+  </si>
+  <si>
+    <t>[Patient] View linked medical profile information</t>
+  </si>
+  <si>
+    <t>As a patient, I want to extract some information (immunization, allegy) so that I can quickly have overview about them</t>
+  </si>
+  <si>
+    <t>Only show medical profile that use built-in modules (immunization, allergy)
+Link to medical profile that have extracted information</t>
+  </si>
+  <si>
+    <t>Product backlog with detail description, acceptance criteria, and delivery date
+Sprint backlog with breaked tasks with assignee</t>
+  </si>
+  <si>
+    <t>Login using email
+After login, redirect user based on their role</t>
+  </si>
+  <si>
+    <t>[User] Logout</t>
+  </si>
+  <si>
+    <t>Only required some basic information
+Send email to confirm email address
+Use capcha to enhanced security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send email with gerenated new password
+</t>
+  </si>
+  <si>
+    <t>As a user, I want to update some information (firstname, address…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate required fields, number
+</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to view medical profile of a patient, so that I can have overview about his diseases</t>
+  </si>
+  <si>
+    <t>Patient have to re-enter current password
+Patient have to enter new password twice</t>
+  </si>
+  <si>
+    <t>[Patient] Rating doctor</t>
+  </si>
+  <si>
+    <t>[Patient] Comment doctor</t>
+  </si>
+  <si>
+    <t>As a patient, I want to rate doctor for his consulting</t>
+  </si>
+  <si>
+    <t>Maximum point is 5
+Doctor and other patients can see the average point of rating</t>
+  </si>
+  <si>
+    <t>As a patient, I want to give my comment for doctor so that I can show my opinions/ideas</t>
+  </si>
+  <si>
+    <t>Doctor and other patients can see the comment
+Doctor can comment to reply</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to chat with patients so that I can help them</t>
+  </si>
+  <si>
+    <t>Doctor can view medical profile created by other doctors</t>
+  </si>
+  <si>
+    <t>Doctor can see unread messages</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to request camera from patients when needed</t>
+  </si>
+  <si>
+    <t>Only request to one patient at the same time</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to upload attachment and send to patient, so useful data could be exchange</t>
+  </si>
+  <si>
+    <t>If attach files are images, display on the chat content, otherwise, let patient download it</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to update medical profile created for patient</t>
+  </si>
+  <si>
+    <t>[Doctor] Create medical profile</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to create medical profile for patient, so that I can update it instantly</t>
+  </si>
+  <si>
+    <t>Doctor can choose any exsting template to create
+One patient with have only one medical profile created from one template</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to create account for patient so that new patient can use application instanly</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to edit patient information, so that I can correct information</t>
+  </si>
+  <si>
+    <t>Password of patient is sent to patient's email automatically</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to search patient so that I can increase my work performance</t>
+  </si>
+  <si>
+    <t>[Doctor] View comment/rating</t>
+  </si>
+  <si>
+    <t>[Doctor] Add comment</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to add new comment so that I can interact with my patients effectively</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to view comment/rating so that I can know feedback from patients</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to change my profile picture</t>
+  </si>
+  <si>
+    <t>As a doctor, I want to change my password</t>
+  </si>
+  <si>
+    <t>Doctor have to re-enter current password
+Doctor have to enter new password twice</t>
+  </si>
+  <si>
+    <t>Admin can edit some information during add new doctor</t>
+  </si>
+  <si>
+    <t>As an admin, I want to edit information of a doctor, so that I can correct wrong information</t>
+  </si>
+  <si>
+    <t>As an admin, I want to search doctors so that I can increase my work performance</t>
+  </si>
+  <si>
+    <t>As an admin, I want to deactive/active doctor, so that I can operate system well</t>
+  </si>
+  <si>
+    <t>Deactive doctor cannot access to the system anymore</t>
+  </si>
+  <si>
+    <t>As an admin, I want to  view medical profile from all patients for management</t>
+  </si>
+  <si>
+    <t>As an admin, I want to  create new doctor for my hospital</t>
+  </si>
+  <si>
+    <t>As an admin, I want to create new patient</t>
+  </si>
+  <si>
+    <t>As an admin, I want to edit some information of patient</t>
+  </si>
+  <si>
+    <t>As a admin, I want to search patient so that I can increase my work performance</t>
+  </si>
+  <si>
+    <t>As an admin, I want to deactive/active patient, so that I can operate system well</t>
+  </si>
+  <si>
+    <t>Deactive patient cannot access to the system anymore</t>
+  </si>
+  <si>
+    <t>As an admin, I want to define new medical profile template for my hospital</t>
+  </si>
+  <si>
+    <t>Template can re-use existing information from patients
+Template can use some built-in modules of system</t>
+  </si>
+  <si>
+    <t>After updating, a summary changes should be listed out</t>
+  </si>
+  <si>
+    <t>As an admin, I want to update medical profile template, so that my template can stay update with new changes</t>
+  </si>
+  <si>
+    <t>As an admin, I want to change my profile picture</t>
+  </si>
+  <si>
+    <t>As an admin, I want to change my password</t>
+  </si>
+  <si>
+    <t>Admin have to re-enter current password
+Admin have to enter new password twice</t>
   </si>
 </sst>
 </file>
@@ -348,7 +626,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -365,17 +643,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -388,31 +655,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -444,16 +719,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G19" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:G19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G53" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:G53"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No."/>
+    <tableColumn id="1" name="No." dataDxfId="1"/>
     <tableColumn id="2" name="Category"/>
     <tableColumn id="3" name="Userstory"/>
-    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="4" name="Description" dataDxfId="2"/>
     <tableColumn id="6" name="Acceptance criteria"/>
     <tableColumn id="7" name="Delivery date"/>
-    <tableColumn id="8" name="Sprint"/>
+    <tableColumn id="8" name="Sprint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -746,376 +1021,878 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" customWidth="1"/>
     <col min="4" max="4" width="59.5703125" style="2" customWidth="1"/>
     <col min="5" max="6" width="59.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="12"/>
+      <c r="D51" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
@@ -1140,18 +1917,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1162,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,10 +1950,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,133 +1961,133 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
         <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
